--- a/5_machine_learning_and_data_analysis/notes/PCA example.xlsx
+++ b/5_machine_learning_and_data_analysis/notes/PCA example.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitriair/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gregory\Documents\GitHub\digital-courses\5_machine_learning_and_data_analysis\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2022331-E313-ED40-B8DA-6F630BFE7B33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF04D0-77BE-4D6F-A6A2-2618C5A02D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{477C55CD-4593-FD45-8EC2-357FF5430704}"/>
+    <workbookView xWindow="4572" yWindow="1860" windowWidth="28836" windowHeight="12204" xr2:uid="{477C55CD-4593-FD45-8EC2-357FF5430704}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,9 +58,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,7 +100,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1187,9 +1192,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1227,7 +1232,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1333,7 +1338,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1475,7 +1480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1486,17 +1491,17 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V60" sqref="V60"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1521,7 +1526,7 @@
         <v>179.00693000000001</v>
       </c>
       <c r="C2" s="1">
-        <f>B2/$E$2</f>
+        <f t="shared" ref="C2:C33" si="0">B2/$E$2</f>
         <v>0.14890593577904682</v>
       </c>
       <c r="D2" s="1">
@@ -1533,7 +1538,7 @@
         <v>1202.1477119999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1541,7 +1546,7 @@
         <v>163.717747</v>
       </c>
       <c r="C3" s="1">
-        <f>B3/$E$2</f>
+        <f t="shared" si="0"/>
         <v>0.13618771251298611</v>
       </c>
       <c r="D3" s="1">
@@ -1549,7 +1554,7 @@
         <v>0.28509364829203293</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1557,15 +1562,15 @@
         <v>141.78843900000001</v>
       </c>
       <c r="C4" s="1">
-        <f>B4/$E$2</f>
+        <f t="shared" si="0"/>
         <v>0.11794593757875907</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D65" si="0">D3+C4</f>
+        <f t="shared" ref="D4:D65" si="1">D3+C4</f>
         <v>0.40303958587079203</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1573,15 +1578,15 @@
         <v>101.100375</v>
       </c>
       <c r="C5" s="1">
-        <f>B5/$E$2</f>
+        <f t="shared" si="0"/>
         <v>8.4099794052596447E-2</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.48713937992338846</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1589,15 +1594,15 @@
         <v>69.513165999999998</v>
       </c>
       <c r="C6" s="1">
-        <f>B6/$E$2</f>
+        <f t="shared" si="0"/>
         <v>5.7824146988020068E-2</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.54496352691140848</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1605,15 +1610,15 @@
         <v>59.108525</v>
       </c>
       <c r="C7" s="1">
-        <f>B7/$E$2</f>
+        <f t="shared" si="0"/>
         <v>4.9169103272393877E-2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.59413263018380236</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1621,15 +1626,15 @@
         <v>51.884538999999997</v>
       </c>
       <c r="C8" s="1">
-        <f>B8/$E$2</f>
+        <f t="shared" si="0"/>
         <v>4.3159870024358546E-2</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.63729250020816086</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1637,15 +1642,15 @@
         <v>44.015107</v>
       </c>
       <c r="C9" s="1">
-        <f>B9/$E$2</f>
+        <f t="shared" si="0"/>
         <v>3.6613726050996311E-2</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.67390622625915719</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1653,15 +1658,15 @@
         <v>40.310994999999998</v>
       </c>
       <c r="C10" s="1">
-        <f>B10/$E$2</f>
+        <f t="shared" si="0"/>
         <v>3.3532480740603041E-2</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70743870699976019</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1669,15 +1674,15 @@
         <v>37.011797999999999</v>
       </c>
       <c r="C11" s="1">
-        <f>B11/$E$2</f>
+        <f t="shared" si="0"/>
         <v>3.0788061758586959E-2</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73822676875834714</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1685,15 +1690,15 @@
         <v>28.519041000000001</v>
       </c>
       <c r="C12" s="1">
-        <f>B12/$E$2</f>
+        <f t="shared" si="0"/>
         <v>2.3723408292773931E-2</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76195017705112111</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1701,15 +1706,15 @@
         <v>27.321169999999999</v>
       </c>
       <c r="C13" s="1">
-        <f>B13/$E$2</f>
+        <f t="shared" si="0"/>
         <v>2.2726965852262925E-2</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78467714290338408</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1717,15 +1722,15 @@
         <v>21.901488000000001</v>
       </c>
       <c r="C14" s="1">
-        <f>B14/$E$2</f>
+        <f t="shared" si="0"/>
         <v>1.8218633019367263E-2</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8028957759227513</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1733,15 +1738,15 @@
         <v>21.324356999999999</v>
       </c>
       <c r="C15" s="1">
-        <f>B15/$E$2</f>
+        <f t="shared" si="0"/>
         <v>1.7738549753193729E-2</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.82063432567594508</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1749,15 +1754,15 @@
         <v>17.636721999999999</v>
       </c>
       <c r="C16" s="1">
-        <f>B16/$E$2</f>
+        <f t="shared" si="0"/>
         <v>1.4671010745142109E-2</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83530533642108717</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1765,15 +1770,15 @@
         <v>16.946864000000001</v>
       </c>
       <c r="C17" s="1">
-        <f>B17/$E$2</f>
+        <f t="shared" si="0"/>
         <v>1.4097156140492662E-2</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84940249256157985</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1781,15 +1786,15 @@
         <v>15.85139</v>
       </c>
       <c r="C18" s="1">
-        <f>B18/$E$2</f>
+        <f t="shared" si="0"/>
         <v>1.3185892084449605E-2</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86258838464602949</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1797,15 +1802,15 @@
         <v>15.00446</v>
       </c>
       <c r="C19" s="1">
-        <f>B19/$E$2</f>
+        <f t="shared" si="0"/>
         <v>1.2481377995585291E-2</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87506976264161473</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1813,15 +1818,15 @@
         <v>12.234472999999999</v>
       </c>
       <c r="C20" s="1">
-        <f>B20/$E$2</f>
+        <f t="shared" si="0"/>
         <v>1.0177179457959991E-2</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88524694209957477</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1829,15 +1834,15 @@
         <v>10.886858999999999</v>
       </c>
       <c r="C21" s="1">
-        <f>B21/$E$2</f>
+        <f t="shared" si="0"/>
         <v>9.0561741218037617E-3</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.89430311622137859</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1845,15 +1850,15 @@
         <v>10.693566000000001</v>
       </c>
       <c r="C22" s="1">
-        <f>B22/$E$2</f>
+        <f t="shared" si="0"/>
         <v>8.8953843968219461E-3</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90319850061820051</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1861,15 +1866,15 @@
         <v>9.5825980000000008</v>
       </c>
       <c r="C23" s="1">
-        <f>B23/$E$2</f>
+        <f t="shared" si="0"/>
         <v>7.9712317416114689E-3</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91116973235981202</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1877,15 +1882,15 @@
         <v>9.2264029999999995</v>
       </c>
       <c r="C24" s="1">
-        <f>B24/$E$2</f>
+        <f t="shared" si="0"/>
         <v>7.6749328787975111E-3</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91884466523860953</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1893,15 +1898,15 @@
         <v>8.6903690000000005</v>
       </c>
       <c r="C25" s="1">
-        <f>B25/$E$2</f>
+        <f t="shared" si="0"/>
         <v>7.2290359273253788E-3</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9260737011659349</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1909,15 +1914,15 @@
         <v>8.3656120000000005</v>
       </c>
       <c r="C26" s="1">
-        <f>B26/$E$2</f>
+        <f t="shared" si="0"/>
         <v>6.9588885928853327E-3</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9330325897588202</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1925,15 +1930,15 @@
         <v>7.1657799999999998</v>
       </c>
       <c r="C27" s="1">
-        <f>B27/$E$2</f>
+        <f t="shared" si="0"/>
         <v>5.9608149052485168E-3</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93899340466406866</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1941,15 +1946,15 @@
         <v>6.9197389999999999</v>
       </c>
       <c r="C28" s="1">
-        <f>B28/$E$2</f>
+        <f t="shared" si="0"/>
         <v>5.7561470449315312E-3</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94474955170900021</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1957,15 +1962,15 @@
         <v>6.1929550000000004</v>
       </c>
       <c r="C29" s="1">
-        <f>B29/$E$2</f>
+        <f t="shared" si="0"/>
         <v>5.1515757491205887E-3</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94990112745812083</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1973,15 +1978,15 @@
         <v>5.8849910000000003</v>
       </c>
       <c r="C30" s="1">
-        <f>B30/$E$2</f>
+        <f t="shared" si="0"/>
         <v>4.8953975798940765E-3</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95479652503801493</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1989,15 +1994,15 @@
         <v>5.1558669999999998</v>
       </c>
       <c r="C31" s="1">
-        <f>B31/$E$2</f>
+        <f t="shared" si="0"/>
         <v>4.2888797678799729E-3</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95908540480589488</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2005,15 +2010,15 @@
         <v>4.4912970000000003</v>
       </c>
       <c r="C32" s="1">
-        <f>B32/$E$2</f>
+        <f t="shared" si="0"/>
         <v>3.736060847737155E-3</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96282146565363202</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2021,15 +2026,15 @@
         <v>4.2468779999999997</v>
       </c>
       <c r="C33" s="1">
-        <f>B33/$E$2</f>
+        <f t="shared" si="0"/>
         <v>3.5327422392498805E-3</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96635420789288196</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2037,15 +2042,15 @@
         <v>4.0474389999999998</v>
       </c>
       <c r="C34" s="1">
-        <f>B34/$E$2</f>
+        <f t="shared" ref="C34:C65" si="2">B34/$E$2</f>
         <v>3.3668399977789094E-3</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96972104789066083</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2053,15 +2058,15 @@
         <v>3.943403</v>
       </c>
       <c r="C35" s="1">
-        <f>B35/$E$2</f>
+        <f t="shared" si="2"/>
         <v>3.280298220124218E-3</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97300134611078504</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2069,15 +2074,15 @@
         <v>3.7064720000000002</v>
       </c>
       <c r="C36" s="1">
-        <f>B36/$E$2</f>
+        <f t="shared" si="2"/>
         <v>3.0832084634870569E-3</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97608455457427212</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2085,15 +2090,15 @@
         <v>3.5316529999999999</v>
       </c>
       <c r="C37" s="1">
-        <f>B37/$E$2</f>
+        <f t="shared" si="2"/>
         <v>2.9377862343758308E-3</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97902234080864792</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2101,15 +2106,15 @@
         <v>3.0845739999999999</v>
       </c>
       <c r="C38" s="1">
-        <f>B38/$E$2</f>
+        <f t="shared" si="2"/>
         <v>2.5658860131823804E-3</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98158822682183033</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2117,15 +2122,15 @@
         <v>2.7378</v>
       </c>
       <c r="C39" s="1">
-        <f>B39/$E$2</f>
+        <f t="shared" si="2"/>
         <v>2.2774239576974719E-3</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98386565077952781</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2133,15 +2138,15 @@
         <v>2.6721089999999998</v>
       </c>
       <c r="C40" s="1">
-        <f>B40/$E$2</f>
+        <f t="shared" si="2"/>
         <v>2.222779258594139E-3</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98608843003812197</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2149,15 +2154,15 @@
         <v>2.541706</v>
       </c>
       <c r="C41" s="1">
-        <f>B41/$E$2</f>
+        <f t="shared" si="2"/>
         <v>2.1143042361835818E-3</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98820273427430549</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2165,15 +2170,15 @@
         <v>2.2829869999999999</v>
       </c>
       <c r="C42" s="1">
-        <f>B42/$E$2</f>
+        <f t="shared" si="2"/>
         <v>1.8990902508992176E-3</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99010182452520468</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2181,15 +2186,15 @@
         <v>1.9072420000000001</v>
       </c>
       <c r="C43" s="1">
-        <f>B43/$E$2</f>
+        <f t="shared" si="2"/>
         <v>1.5865288274990292E-3</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99168835335270367</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2197,15 +2202,15 @@
         <v>1.8171660000000001</v>
       </c>
       <c r="C44" s="1">
-        <f>B44/$E$2</f>
+        <f t="shared" si="2"/>
         <v>1.5115995995007979E-3</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99319995295220442</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2213,15 +2218,15 @@
         <v>1.689964</v>
       </c>
       <c r="C45" s="1">
-        <f>B45/$E$2</f>
+        <f t="shared" si="2"/>
         <v>1.4057873114348201E-3</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99460574026363924</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2229,15 +2234,15 @@
         <v>1.401972</v>
       </c>
       <c r="C46" s="1">
-        <f>B46/$E$2</f>
+        <f t="shared" si="2"/>
         <v>1.1662227411867339E-3</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99577196300482596</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2245,15 +2250,15 @@
         <v>1.292219</v>
       </c>
       <c r="C47" s="1">
-        <f>B47/$E$2</f>
+        <f t="shared" si="2"/>
         <v>1.0749253083468001E-3</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99684688831317281</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2261,15 +2266,15 @@
         <v>1.1589339999999999</v>
       </c>
       <c r="C48" s="1">
-        <f>B48/$E$2</f>
+        <f t="shared" si="2"/>
         <v>9.6405290999713696E-4</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99781094122316993</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2277,15 +2282,15 @@
         <v>0.93122000000000005</v>
       </c>
       <c r="C49" s="1">
-        <f>B49/$E$2</f>
+        <f t="shared" si="2"/>
         <v>7.7463026440464607E-4</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99858557148757454</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2293,15 +2298,15 @@
         <v>0.66985099999999997</v>
       </c>
       <c r="C50" s="1">
-        <f>B50/$E$2</f>
+        <f t="shared" si="2"/>
         <v>5.5721189111242935E-4</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.999142783378687</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2309,15 +2314,15 @@
         <v>0.48606500000000002</v>
       </c>
       <c r="C51" s="1">
-        <f>B51/$E$2</f>
+        <f t="shared" si="2"/>
         <v>4.0433051208934977E-4</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99954711389077633</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2325,15 +2330,15 @@
         <v>0.25235000000000002</v>
       </c>
       <c r="C52" s="1">
-        <f>B52/$E$2</f>
+        <f t="shared" si="2"/>
         <v>2.0991596746473704E-4</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99975702985824111</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2341,15 +2346,15 @@
         <v>9.9153000000000005E-2</v>
       </c>
       <c r="C53" s="1">
-        <f>B53/$E$2</f>
+        <f t="shared" si="2"/>
         <v>8.2479880808524161E-5</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99983950973904967</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2357,15 +2362,15 @@
         <v>6.3131000000000007E-2</v>
       </c>
       <c r="C54" s="1">
-        <f>B54/$E$2</f>
+        <f t="shared" si="2"/>
         <v>5.2515177103294291E-5</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99989202491615292</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2373,15 +2378,15 @@
         <v>6.0738E-2</v>
       </c>
       <c r="C55" s="1">
-        <f>B55/$E$2</f>
+        <f t="shared" si="2"/>
         <v>5.0524573139977006E-5</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99994254948929295</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2389,15 +2394,15 @@
         <v>3.9666E-2</v>
       </c>
       <c r="C56" s="1">
-        <f>B56/$E$2</f>
+        <f t="shared" si="2"/>
         <v>3.2995945177159736E-5</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99997554543447009</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2405,15 +2410,15 @@
         <v>1.4951000000000001E-2</v>
       </c>
       <c r="C57" s="1">
-        <f>B57/$E$2</f>
+        <f t="shared" si="2"/>
         <v>1.2436907586943861E-5</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99998798234205699</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2421,15 +2426,15 @@
         <v>8.4729999999999996E-3</v>
       </c>
       <c r="C58" s="1">
-        <f>B58/$E$2</f>
+        <f t="shared" si="2"/>
         <v>7.048218713408824E-6</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999503056077044</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2437,15 +2442,15 @@
         <v>3.6240000000000001E-3</v>
       </c>
       <c r="C59" s="1">
-        <f>B59/$E$2</f>
+        <f t="shared" si="2"/>
         <v>3.014604581304565E-6</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999804516535173</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2453,15 +2458,15 @@
         <v>1.2769999999999999E-3</v>
       </c>
       <c r="C60" s="1">
-        <f>B60/$E$2</f>
+        <f t="shared" si="2"/>
         <v>1.0622654664254772E-6</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999910743081821</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2469,15 +2474,15 @@
         <v>6.6100000000000002E-4</v>
       </c>
       <c r="C61" s="1">
-        <f>B61/$E$2</f>
+        <f t="shared" si="2"/>
         <v>5.4984923516620236E-7</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999965728005336</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2485,15 +2490,15 @@
         <v>4.1199999999999999E-4</v>
       </c>
       <c r="C62" s="1">
-        <f>B62/$E$2</f>
+        <f t="shared" si="2"/>
         <v>3.4271994688120332E-7</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2501,15 +2506,15 @@
         <v>0</v>
       </c>
       <c r="C63" s="1">
-        <f>B63/$E$2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2517,15 +2522,15 @@
         <v>0</v>
       </c>
       <c r="C64" s="1">
-        <f>B64/$E$2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2533,11 +2538,11 @@
         <v>0</v>
       </c>
       <c r="C65" s="1">
-        <f>B65/$E$2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
